--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_5_1.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_5_1.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2377919.463760888</v>
+        <v>-2380367.696839941</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6654055.582836239</v>
+        <v>6654055.582836238</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.493767343</v>
+        <v>603248.4937673429</v>
       </c>
     </row>
     <row r="9">
@@ -659,16 +659,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>70.06474167893016</v>
+        <v>106.7415101663735</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>413.784170020795</v>
@@ -704,19 +704,19 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -725,7 +725,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -832,7 +832,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -859,7 +859,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -868,19 +868,19 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>230.0128602416717</v>
       </c>
       <c r="X4" t="n">
-        <v>155.886038567534</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -893,28 +893,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>64.76935934992265</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,7 +941,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -953,7 +953,7 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>195.2984409363994</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -962,7 +962,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -993,7 +993,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1051,31 +1051,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>2.660219339388957</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1099,7 +1099,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1114,13 +1114,13 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>155.7603343833873</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1130,13 +1130,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -1145,7 +1145,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>78.12643370166256</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1178,25 +1178,25 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481172</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>36.408870063228</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1230,7 +1230,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1294,13 +1294,13 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>89.30725745073089</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1333,19 +1333,19 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491431</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>266.6210949690525</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1421,10 +1421,10 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T11" t="n">
-        <v>203.9179701396201</v>
+        <v>203.917970139621</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9951719589025</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1528,22 +1528,22 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
         <v>96.35242040983809</v>
@@ -1573,10 +1573,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
         <v>219.5489492761692</v>
@@ -1588,10 +1588,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>30.02061573955306</v>
       </c>
       <c r="X13" t="n">
-        <v>42.34562074789903</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1765,13 +1765,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -1780,7 +1780,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>144.7550149143208</v>
+        <v>33.48310077427426</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1819,7 +1819,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U16" t="n">
-        <v>125.3146872343259</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1828,7 +1828,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1841,7 +1841,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634811</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -2011,7 +2011,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>141.1768893147597</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -2053,19 +2053,19 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T19" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>169.0903780836769</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>109.1877617881758</v>
+        <v>109.1877617881769</v>
       </c>
       <c r="T20" t="n">
         <v>203.9179701396201</v>
@@ -2239,19 +2239,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.0099720696627</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>144.7550149143208</v>
@@ -2296,13 +2296,13 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>20.31872152054647</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2476,7 +2476,7 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C25" t="n">
-        <v>120.2716844800353</v>
+        <v>120.2716844800361</v>
       </c>
       <c r="D25" t="n">
         <v>101.6403363996198</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>41.95701605145474</v>
+        <v>41.95701605145477</v>
       </c>
       <c r="S25" t="n">
         <v>142.7938887128493</v>
@@ -2530,7 +2530,7 @@
         <v>172.5738126575766</v>
       </c>
       <c r="U25" t="n">
-        <v>239.23670158702</v>
+        <v>239.2367015870203</v>
       </c>
       <c r="V25" t="n">
         <v>205.1625067052354</v>
@@ -2573,7 +2573,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I26" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2652,7 +2652,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I27" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2679,10 +2679,10 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S27" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T27" t="n">
         <v>190.7165703189231</v>
@@ -2713,7 +2713,7 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C28" t="n">
-        <v>120.2716844800361</v>
+        <v>120.2716844800353</v>
       </c>
       <c r="D28" t="n">
         <v>101.6403363996198</v>
@@ -2728,10 +2728,10 @@
         <v>119.0506716404357</v>
       </c>
       <c r="H28" t="n">
-        <v>97.77987829572822</v>
+        <v>97.77987829572855</v>
       </c>
       <c r="I28" t="n">
-        <v>49.37728379124552</v>
+        <v>49.37728379124554</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>41.95701605145476</v>
+        <v>41.95701605145477</v>
       </c>
       <c r="S28" t="n">
         <v>142.7938887128493</v>
@@ -2767,7 +2767,7 @@
         <v>172.5738126575766</v>
       </c>
       <c r="U28" t="n">
-        <v>239.2367015870203</v>
+        <v>239.2367015870204</v>
       </c>
       <c r="V28" t="n">
         <v>205.1625067052354</v>
@@ -2916,7 +2916,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S30" t="n">
         <v>128.1435076414547</v>
@@ -2965,10 +2965,10 @@
         <v>119.0506716404357</v>
       </c>
       <c r="H31" t="n">
-        <v>97.77987829572822</v>
+        <v>97.7798782957281</v>
       </c>
       <c r="I31" t="n">
-        <v>49.37728379124552</v>
+        <v>49.37728379124554</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>41.95701605145477</v>
+        <v>41.95701605145565</v>
       </c>
       <c r="S31" t="n">
         <v>142.7938887128493</v>
@@ -3004,7 +3004,7 @@
         <v>172.5738126575766</v>
       </c>
       <c r="U31" t="n">
-        <v>239.2367015870209</v>
+        <v>239.23670158702</v>
       </c>
       <c r="V31" t="n">
         <v>205.1625067052354</v>
@@ -3187,25 +3187,25 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C34" t="n">
-        <v>120.2716844800352</v>
+        <v>120.2716844800353</v>
       </c>
       <c r="D34" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E34" t="n">
-        <v>99.45882602797658</v>
+        <v>99.45882602797661</v>
       </c>
       <c r="F34" t="n">
-        <v>98.44591140433866</v>
+        <v>98.44591140433869</v>
       </c>
       <c r="G34" t="n">
-        <v>119.0506716404356</v>
+        <v>119.0506716404357</v>
       </c>
       <c r="H34" t="n">
-        <v>97.77987829572818</v>
+        <v>97.77987829572821</v>
       </c>
       <c r="I34" t="n">
-        <v>49.37728379124551</v>
+        <v>49.37728379124554</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,16 +3232,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.95701605145474</v>
+        <v>41.95701605145477</v>
       </c>
       <c r="S34" t="n">
-        <v>142.7938887128493</v>
+        <v>142.7938887128497</v>
       </c>
       <c r="T34" t="n">
         <v>172.5738126575766</v>
       </c>
       <c r="U34" t="n">
-        <v>239.2367015870204</v>
+        <v>239.23670158702</v>
       </c>
       <c r="V34" t="n">
         <v>205.1625067052354</v>
@@ -3442,7 +3442,7 @@
         <v>97.7798782957282</v>
       </c>
       <c r="I37" t="n">
-        <v>49.3772837912455</v>
+        <v>49.37728379124548</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3472,13 +3472,13 @@
         <v>41.95701605145474</v>
       </c>
       <c r="S37" t="n">
-        <v>142.7938887128493</v>
+        <v>142.7938887128492</v>
       </c>
       <c r="T37" t="n">
         <v>172.5738126575766</v>
       </c>
       <c r="U37" t="n">
-        <v>239.2367015870204</v>
+        <v>239.23670158702</v>
       </c>
       <c r="V37" t="n">
         <v>205.1625067052354</v>
@@ -3557,7 +3557,7 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9951719589025</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3658,7 +3658,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>132.8568435633447</v>
+        <v>132.8568435633448</v>
       </c>
       <c r="C40" t="n">
         <v>120.2716844800353</v>
@@ -3667,19 +3667,19 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E40" t="n">
-        <v>99.4588260279766</v>
+        <v>99.45882602797664</v>
       </c>
       <c r="F40" t="n">
-        <v>98.44591140433867</v>
+        <v>98.44591140433872</v>
       </c>
       <c r="G40" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H40" t="n">
-        <v>97.77987829572818</v>
+        <v>97.77987829572825</v>
       </c>
       <c r="I40" t="n">
-        <v>49.37728379124552</v>
+        <v>49.37728379124556</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,28 +3706,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.95701605145477</v>
+        <v>41.9570160514548</v>
       </c>
       <c r="S40" t="n">
-        <v>142.7938887128493</v>
+        <v>142.7938887128492</v>
       </c>
       <c r="T40" t="n">
-        <v>172.5738126575766</v>
+        <v>172.5738126575767</v>
       </c>
       <c r="U40" t="n">
-        <v>239.2367015870202</v>
+        <v>239.2367015870204</v>
       </c>
       <c r="V40" t="n">
-        <v>205.1625067052354</v>
+        <v>205.1625067052355</v>
       </c>
       <c r="W40" t="n">
-        <v>239.5478617179984</v>
+        <v>239.5478617179985</v>
       </c>
       <c r="X40" t="n">
         <v>178.7345187704446</v>
       </c>
       <c r="Y40" t="n">
-        <v>171.6095167335022</v>
+        <v>171.6095167335023</v>
       </c>
     </row>
     <row r="41">
@@ -3737,7 +3737,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634811</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -3758,7 +3758,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I41" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3791,7 +3791,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T41" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U41" t="n">
         <v>250.995171958902</v>
@@ -3834,10 +3834,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H42" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I42" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3864,7 +3864,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S42" t="n">
         <v>128.1435076414547</v>
@@ -3898,25 +3898,25 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C43" t="n">
-        <v>120.2716844800353</v>
+        <v>120.2716844800352</v>
       </c>
       <c r="D43" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E43" t="n">
-        <v>99.45882602797661</v>
+        <v>99.45882602797658</v>
       </c>
       <c r="F43" t="n">
-        <v>98.44591140433869</v>
+        <v>98.44591140433866</v>
       </c>
       <c r="G43" t="n">
-        <v>119.0506716404357</v>
+        <v>119.0506716404356</v>
       </c>
       <c r="H43" t="n">
-        <v>97.77987829572822</v>
+        <v>97.7798782957282</v>
       </c>
       <c r="I43" t="n">
-        <v>49.37728379124554</v>
+        <v>49.37728379124552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.95701605145474</v>
+        <v>41.95701605145476</v>
       </c>
       <c r="S43" t="n">
         <v>142.7938887128493</v>
@@ -3952,7 +3952,7 @@
         <v>172.5738126575766</v>
       </c>
       <c r="U43" t="n">
-        <v>239.2367015870202</v>
+        <v>239.2367015870204</v>
       </c>
       <c r="V43" t="n">
         <v>205.1625067052354</v>
@@ -3995,7 +3995,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I44" t="n">
-        <v>41.57692977292587</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4028,7 +4028,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T44" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U44" t="n">
         <v>250.995171958902</v>
@@ -4071,10 +4071,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H45" t="n">
-        <v>89.59687541851113</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I45" t="n">
-        <v>18.81721868247739</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4101,10 +4101,10 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.1429098734097636</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S45" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T45" t="n">
         <v>190.7165703189231</v>
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>132.8568435633448</v>
+        <v>132.8568435633447</v>
       </c>
       <c r="C46" t="n">
-        <v>120.2716844800353</v>
+        <v>120.2716844800352</v>
       </c>
       <c r="D46" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E46" t="n">
-        <v>99.45882602797664</v>
+        <v>99.45882602797658</v>
       </c>
       <c r="F46" t="n">
-        <v>98.44591140433872</v>
+        <v>98.44591140433866</v>
       </c>
       <c r="G46" t="n">
-        <v>119.0506716404357</v>
+        <v>119.0506716404356</v>
       </c>
       <c r="H46" t="n">
-        <v>97.77987829572825</v>
+        <v>97.7798782957282</v>
       </c>
       <c r="I46" t="n">
-        <v>49.37728379124553</v>
+        <v>49.37728379124554</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,28 +4180,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.95701605145476</v>
+        <v>41.95701605145477</v>
       </c>
       <c r="S46" t="n">
         <v>142.7938887128493</v>
       </c>
       <c r="T46" t="n">
-        <v>172.5738126575767</v>
+        <v>172.5738126575766</v>
       </c>
       <c r="U46" t="n">
-        <v>239.2367015870204</v>
+        <v>239.2367015870202</v>
       </c>
       <c r="V46" t="n">
-        <v>205.1625067052355</v>
+        <v>205.1625067052354</v>
       </c>
       <c r="W46" t="n">
-        <v>239.5478617179985</v>
+        <v>239.5478617179984</v>
       </c>
       <c r="X46" t="n">
         <v>178.7345187704446</v>
       </c>
       <c r="Y46" t="n">
-        <v>171.6095167335023</v>
+        <v>171.6095167335022</v>
       </c>
     </row>
   </sheetData>
@@ -4304,34 +4304,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1666.64813361638</v>
+        <v>1275.883734065347</v>
       </c>
       <c r="C2" t="n">
-        <v>1666.64813361638</v>
+        <v>906.9212171249358</v>
       </c>
       <c r="D2" t="n">
-        <v>1595.875667274027</v>
+        <v>799.1015098861747</v>
       </c>
       <c r="E2" t="n">
-        <v>1210.087414675782</v>
+        <v>799.1015098861747</v>
       </c>
       <c r="F2" t="n">
-        <v>799.1015098861748</v>
+        <v>799.1015098861747</v>
       </c>
       <c r="G2" t="n">
         <v>381.1377017843616</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I2" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
         <v>881.2824271224075</v>
@@ -4340,7 +4340,7 @@
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4352,28 +4352,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="S2" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862885</v>
       </c>
       <c r="T2" t="n">
-        <v>2697.149091018222</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2443.387305656314</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>2443.387305656314</v>
+        <v>1662.483574129469</v>
       </c>
       <c r="W2" t="n">
-        <v>2443.387305656314</v>
+        <v>1662.483574129469</v>
       </c>
       <c r="X2" t="n">
-        <v>2443.387305656314</v>
+        <v>1662.483574129469</v>
       </c>
       <c r="Y2" t="n">
-        <v>2053.247973680502</v>
+        <v>1662.483574129469</v>
       </c>
     </row>
     <row r="3">
@@ -4383,28 +4383,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170825</v>
+        <v>988.4979752170821</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359555</v>
+        <v>814.0449459359551</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747037</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692486</v>
+        <v>505.8730812692481</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961333</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102423999</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673418</v>
       </c>
       <c r="I3" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J3" t="n">
         <v>129.2001442204943</v>
@@ -4422,10 +4422,10 @@
         <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152626</v>
+        <v>2525.076107152625</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4437,13 +4437,13 @@
         <v>2488.762748073963</v>
       </c>
       <c r="T3" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196741</v>
       </c>
       <c r="U3" t="n">
-        <v>2061.714576167582</v>
+        <v>2061.714576167581</v>
       </c>
       <c r="V3" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.562467935838</v>
       </c>
       <c r="W3" t="n">
         <v>1572.325111207637</v>
@@ -4452,7 +4452,7 @@
         <v>1364.473611002104</v>
       </c>
       <c r="Y3" t="n">
-        <v>1156.713312237151</v>
+        <v>1156.71331223715</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>53.94298182036445</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="C4" t="n">
-        <v>53.94298182036445</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="D4" t="n">
-        <v>53.94298182036445</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="E4" t="n">
-        <v>53.94298182036445</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036445</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036445</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K4" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="T4" t="n">
-        <v>500.8207968750362</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="U4" t="n">
-        <v>500.8207968750362</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="V4" t="n">
-        <v>500.8207968750362</v>
+        <v>444.0275768541693</v>
       </c>
       <c r="W4" t="n">
-        <v>211.4036268380756</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="X4" t="n">
-        <v>53.94298182036445</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="Y4" t="n">
-        <v>53.94298182036445</v>
+        <v>211.6913543878343</v>
       </c>
     </row>
     <row r="5">
@@ -4541,43 +4541,43 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1328.4755035807</v>
+        <v>1253.251950079336</v>
       </c>
       <c r="C5" t="n">
-        <v>959.5129866402885</v>
+        <v>884.2894331389239</v>
       </c>
       <c r="D5" t="n">
-        <v>959.5129866402885</v>
+        <v>526.0237345321734</v>
       </c>
       <c r="E5" t="n">
-        <v>959.5129866402885</v>
+        <v>140.2354819339292</v>
       </c>
       <c r="F5" t="n">
-        <v>548.527081850681</v>
+        <v>133.2899811847257</v>
       </c>
       <c r="G5" t="n">
-        <v>534.603677789272</v>
+        <v>119.3665771233166</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733124</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4589,28 +4589,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V5" t="n">
-        <v>2444.849249087706</v>
+        <v>2366.086203674651</v>
       </c>
       <c r="W5" t="n">
-        <v>2092.080593817592</v>
+        <v>2013.317548404537</v>
       </c>
       <c r="X5" t="n">
-        <v>1718.614835556512</v>
+        <v>1639.851790143457</v>
       </c>
       <c r="Y5" t="n">
-        <v>1328.4755035807</v>
+        <v>1639.851790143457</v>
       </c>
     </row>
     <row r="6">
@@ -4641,7 +4641,7 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J6" t="n">
         <v>129.2001442204943</v>
@@ -4653,16 +4653,16 @@
         <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018223</v>
@@ -4699,31 +4699,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>546.4805193761945</v>
+        <v>201.8560754027575</v>
       </c>
       <c r="C7" t="n">
-        <v>546.4805193761945</v>
+        <v>201.8560754027575</v>
       </c>
       <c r="D7" t="n">
-        <v>396.3638799638587</v>
+        <v>201.8560754027575</v>
       </c>
       <c r="E7" t="n">
-        <v>396.3638799638587</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="F7" t="n">
-        <v>396.3638799638587</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G7" t="n">
-        <v>393.6767897220517</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H7" t="n">
-        <v>235.9284171545819</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
@@ -4747,28 +4747,28 @@
         <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="W7" t="n">
-        <v>728.1289842064342</v>
+        <v>422.6486545462876</v>
       </c>
       <c r="X7" t="n">
-        <v>728.1289842064342</v>
+        <v>422.6486545462876</v>
       </c>
       <c r="Y7" t="n">
-        <v>728.1289842064342</v>
+        <v>201.8560754027575</v>
       </c>
     </row>
     <row r="8">
@@ -4778,19 +4778,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1452.061221751177</v>
+        <v>1745.334734821698</v>
       </c>
       <c r="C8" t="n">
-        <v>1083.098704810766</v>
+        <v>1376.372217881286</v>
       </c>
       <c r="D8" t="n">
-        <v>1083.098704810766</v>
+        <v>1018.106519274536</v>
       </c>
       <c r="E8" t="n">
-        <v>697.3104522125213</v>
+        <v>632.3182666762915</v>
       </c>
       <c r="F8" t="n">
-        <v>286.3245474229138</v>
+        <v>221.3323618866839</v>
       </c>
       <c r="G8" t="n">
         <v>207.4089578252748</v>
@@ -4802,19 +4802,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K8" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4829,25 +4829,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T8" t="n">
-        <v>2423.485734520778</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U8" t="n">
-        <v>2169.72394915887</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="V8" t="n">
-        <v>1838.661061815299</v>
+        <v>2134.880026519315</v>
       </c>
       <c r="W8" t="n">
-        <v>1838.661061815299</v>
+        <v>1782.111371249201</v>
       </c>
       <c r="X8" t="n">
-        <v>1838.661061815299</v>
+        <v>1745.334734821698</v>
       </c>
       <c r="Y8" t="n">
-        <v>1838.661061815299</v>
+        <v>1745.334734821698</v>
       </c>
     </row>
     <row r="9">
@@ -4857,25 +4857,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C9" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E9" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H9" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I9" t="n">
         <v>53.94298182036445</v>
@@ -4884,10 +4884,10 @@
         <v>53.94298182036445</v>
       </c>
       <c r="K9" t="n">
-        <v>309.190302261463</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L9" t="n">
-        <v>670.8219208598713</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M9" t="n">
         <v>1194.968834417902</v>
@@ -4902,22 +4902,22 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U9" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W9" t="n">
         <v>1572.325111207638</v>
@@ -4936,16 +4936,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>53.94298182036445</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="C10" t="n">
-        <v>53.94298182036445</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="D10" t="n">
-        <v>53.94298182036445</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036445</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F10" t="n">
         <v>53.94298182036445</v>
@@ -4981,31 +4981,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T10" t="n">
-        <v>323.2572191628418</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U10" t="n">
-        <v>53.94298182036445</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="V10" t="n">
-        <v>53.94298182036445</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="W10" t="n">
-        <v>53.94298182036445</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="X10" t="n">
-        <v>53.94298182036445</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="Y10" t="n">
-        <v>53.94298182036445</v>
+        <v>438.9553738610022</v>
       </c>
     </row>
     <row r="11">
@@ -5039,25 +5039,25 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J11" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K11" t="n">
-        <v>939.1634975427194</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L11" t="n">
-        <v>1732.058578925876</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M11" t="n">
-        <v>2265.590483597801</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N11" t="n">
-        <v>2812.369300656583</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O11" t="n">
-        <v>3692.333950986038</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P11" t="n">
-        <v>4405.689038432984</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q11" t="n">
         <v>4653.975400188666</v>
@@ -5069,7 +5069,7 @@
         <v>4667.761053946816</v>
       </c>
       <c r="T11" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U11" t="n">
         <v>4208.252829604874</v>
@@ -5173,22 +5173,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>637.8063921226883</v>
+        <v>658.1567207524339</v>
       </c>
       <c r="C13" t="n">
-        <v>637.8063921226883</v>
+        <v>489.220537824527</v>
       </c>
       <c r="D13" t="n">
-        <v>487.6897527103525</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="E13" t="n">
-        <v>339.7766591279594</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="F13" t="n">
-        <v>192.8867116300491</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="G13" t="n">
-        <v>192.8867116300491</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="H13" t="n">
         <v>192.8867116300491</v>
@@ -5221,28 +5221,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R13" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S13" t="n">
-        <v>1956.343466104704</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T13" t="n">
-        <v>1734.57685067423</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U13" t="n">
-        <v>1445.473983799873</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="V13" t="n">
-        <v>1190.789495593986</v>
+        <v>909.2731541783409</v>
       </c>
       <c r="W13" t="n">
-        <v>901.3723255570255</v>
+        <v>878.949299895964</v>
       </c>
       <c r="X13" t="n">
-        <v>858.5989712662184</v>
+        <v>878.949299895964</v>
       </c>
       <c r="Y13" t="n">
-        <v>637.8063921226883</v>
+        <v>658.1567207524339</v>
       </c>
     </row>
     <row r="14">
@@ -5276,28 +5276,28 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J14" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K14" t="n">
-        <v>939.1634975427194</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L14" t="n">
-        <v>1797.117834600129</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M14" t="n">
-        <v>2330.649739272054</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N14" t="n">
-        <v>2877.428556330836</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O14" t="n">
-        <v>3757.393206660291</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P14" t="n">
-        <v>4470.748294107237</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q14" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R14" t="n">
         <v>4778.051722419721</v>
@@ -5331,19 +5331,19 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>970.5927724973194</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C15" t="n">
-        <v>796.1397432161924</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D15" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E15" t="n">
-        <v>487.9678785494857</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F15" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G15" t="n">
         <v>205.0702204089889</v>
@@ -5355,13 +5355,13 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J15" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K15" t="n">
         <v>427.5025029193589</v>
       </c>
       <c r="L15" t="n">
-        <v>794.2006632320241</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M15" t="n">
         <v>1241.47698845434</v>
@@ -5373,22 +5373,22 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P15" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q15" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R15" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S15" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T15" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U15" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V15" t="n">
         <v>1808.657265216076</v>
@@ -5410,22 +5410,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>241.7782212305366</v>
+        <v>596.3482642844385</v>
       </c>
       <c r="C16" t="n">
-        <v>241.7782212305366</v>
+        <v>427.4120813565316</v>
       </c>
       <c r="D16" t="n">
-        <v>241.7782212305366</v>
+        <v>277.2954419441959</v>
       </c>
       <c r="E16" t="n">
-        <v>241.7782212305366</v>
+        <v>129.3823483618028</v>
       </c>
       <c r="F16" t="n">
-        <v>241.7782212305366</v>
+        <v>129.3823483618028</v>
       </c>
       <c r="G16" t="n">
-        <v>241.7782212305366</v>
+        <v>129.3823483618028</v>
       </c>
       <c r="H16" t="n">
         <v>95.56103444839442</v>
@@ -5467,19 +5467,19 @@
         <v>1542.890966501056</v>
       </c>
       <c r="U16" t="n">
-        <v>1416.310474345171</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="V16" t="n">
-        <v>1161.625986139284</v>
+        <v>1288.206478295169</v>
       </c>
       <c r="W16" t="n">
-        <v>872.2088161023238</v>
+        <v>998.7893082582084</v>
       </c>
       <c r="X16" t="n">
-        <v>644.2192652043065</v>
+        <v>998.7893082582084</v>
       </c>
       <c r="Y16" t="n">
-        <v>423.4266860607763</v>
+        <v>777.9967291146783</v>
       </c>
     </row>
     <row r="17">
@@ -5492,49 +5492,49 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C17" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D17" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E17" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F17" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G17" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H17" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089264</v>
       </c>
       <c r="I17" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J17" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K17" t="n">
-        <v>618.2595390972663</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L17" t="n">
-        <v>1069.293752345675</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M17" t="n">
-        <v>1897.67628410419</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N17" t="n">
-        <v>2877.428556330836</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O17" t="n">
-        <v>3757.393206660291</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P17" t="n">
-        <v>4470.748294107237</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q17" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R17" t="n">
         <v>4778.051722419721</v>
@@ -5583,22 +5583,22 @@
         <v>341.4333205763708</v>
       </c>
       <c r="G18" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089891</v>
       </c>
       <c r="H18" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I18" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J18" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390116</v>
       </c>
       <c r="K18" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193586</v>
       </c>
       <c r="L18" t="n">
-        <v>794.2006632320241</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M18" t="n">
         <v>1241.47698845434</v>
@@ -5647,16 +5647,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>851.3470556529297</v>
+        <v>708.7441371531723</v>
       </c>
       <c r="C19" t="n">
-        <v>682.4108727250228</v>
+        <v>539.8079542252655</v>
       </c>
       <c r="D19" t="n">
-        <v>532.2942333126871</v>
+        <v>389.6913148129298</v>
       </c>
       <c r="E19" t="n">
-        <v>384.381139730294</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="F19" t="n">
         <v>241.7782212305366</v>
@@ -5701,22 +5701,22 @@
         <v>1764.65758193153</v>
       </c>
       <c r="T19" t="n">
-        <v>1542.890966501056</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="U19" t="n">
-        <v>1253.788099626699</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="V19" t="n">
-        <v>1253.788099626699</v>
+        <v>1509.973093725643</v>
       </c>
       <c r="W19" t="n">
-        <v>1253.788099626699</v>
+        <v>1339.174732024959</v>
       </c>
       <c r="X19" t="n">
-        <v>1253.788099626699</v>
+        <v>1111.185181126942</v>
       </c>
       <c r="Y19" t="n">
-        <v>1032.995520483169</v>
+        <v>890.3926019834121</v>
       </c>
     </row>
     <row r="20">
@@ -5729,43 +5729,43 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C20" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D20" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E20" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F20" t="n">
-        <v>850.2139837551626</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G20" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H20" t="n">
-        <v>137.5579332089264</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I20" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J20" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K20" t="n">
-        <v>1106.569146563073</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L20" t="n">
-        <v>1557.603359811481</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M20" t="n">
-        <v>2091.135264483406</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N20" t="n">
-        <v>2637.914081542188</v>
+        <v>3297.750360443163</v>
       </c>
       <c r="O20" t="n">
-        <v>3482.142110232732</v>
+        <v>3800.7228313225</v>
       </c>
       <c r="P20" t="n">
         <v>4195.497197679678</v>
@@ -5777,19 +5777,19 @@
         <v>4778.051722419721</v>
       </c>
       <c r="S20" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T20" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U20" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V20" t="n">
         <v>3877.189942261304</v>
       </c>
       <c r="W20" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X20" t="n">
         <v>3150.95552873011</v>
@@ -5805,76 +5805,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>970.5927724973203</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C21" t="n">
-        <v>796.1397432161933</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D21" t="n">
-        <v>647.2053335549422</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E21" t="n">
-        <v>487.9678785494866</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F21" t="n">
-        <v>341.4333205763717</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G21" t="n">
-        <v>205.0702204089899</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H21" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468563</v>
       </c>
       <c r="I21" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J21" t="n">
-        <v>189.238303939012</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K21" t="n">
-        <v>427.5025029193594</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L21" t="n">
-        <v>794.2006632320249</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M21" t="n">
-        <v>1241.476988454341</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N21" t="n">
-        <v>1715.000032008796</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O21" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P21" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q21" t="n">
-        <v>2594.102460549553</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R21" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S21" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T21" t="n">
-        <v>2271.877220313404</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U21" t="n">
-        <v>2043.80937344782</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V21" t="n">
-        <v>1808.657265216077</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W21" t="n">
-        <v>1554.419908487875</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X21" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y21" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="22">
@@ -5884,19 +5884,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>822.6299143867971</v>
+        <v>485.9938459101016</v>
       </c>
       <c r="C22" t="n">
-        <v>653.6937314588902</v>
+        <v>485.9938459101016</v>
       </c>
       <c r="D22" t="n">
-        <v>653.6937314588902</v>
+        <v>485.9938459101016</v>
       </c>
       <c r="E22" t="n">
-        <v>505.7806378764971</v>
+        <v>485.9938459101016</v>
       </c>
       <c r="F22" t="n">
-        <v>505.7806378764971</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="G22" t="n">
         <v>339.1038984121913</v>
@@ -5944,16 +5944,16 @@
         <v>1453.060509258584</v>
       </c>
       <c r="V22" t="n">
-        <v>1453.060509258584</v>
+        <v>1198.376021052697</v>
       </c>
       <c r="W22" t="n">
-        <v>1453.060509258584</v>
+        <v>908.9588510157366</v>
       </c>
       <c r="X22" t="n">
-        <v>1225.070958360567</v>
+        <v>888.4348898838715</v>
       </c>
       <c r="Y22" t="n">
-        <v>1004.278379217037</v>
+        <v>667.6423107403414</v>
       </c>
     </row>
     <row r="23">
@@ -5993,13 +5993,13 @@
         <v>1106.569146563073</v>
       </c>
       <c r="L23" t="n">
-        <v>1557.603359811481</v>
+        <v>1898.858917622687</v>
       </c>
       <c r="M23" t="n">
-        <v>2091.135264483406</v>
+        <v>2432.390822294612</v>
       </c>
       <c r="N23" t="n">
-        <v>2637.914081542188</v>
+        <v>2979.169639353394</v>
       </c>
       <c r="O23" t="n">
         <v>3482.142110232731</v>
@@ -6042,25 +6042,25 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>970.5927724973194</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C24" t="n">
-        <v>796.1397432161924</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D24" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E24" t="n">
-        <v>487.9678785494857</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F24" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G24" t="n">
         <v>205.0702204089889</v>
       </c>
       <c r="H24" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468563</v>
       </c>
       <c r="I24" t="n">
         <v>95.56103444839442</v>
@@ -6069,37 +6069,37 @@
         <v>189.2383039390118</v>
       </c>
       <c r="K24" t="n">
-        <v>427.5025029193588</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L24" t="n">
-        <v>794.2006632320242</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M24" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N24" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O24" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P24" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q24" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R24" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S24" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T24" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U24" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V24" t="n">
         <v>1808.657265216076</v>
@@ -6121,19 +6121,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>788.5151678215052</v>
+        <v>788.5151678215061</v>
       </c>
       <c r="C25" t="n">
-        <v>667.0286178416716</v>
+        <v>667.0286178416717</v>
       </c>
       <c r="D25" t="n">
-        <v>564.3616113774092</v>
+        <v>564.3616113774093</v>
       </c>
       <c r="E25" t="n">
-        <v>463.8981507430893</v>
+        <v>463.8981507430895</v>
       </c>
       <c r="F25" t="n">
-        <v>364.4578361932523</v>
+        <v>364.4578361932524</v>
       </c>
       <c r="G25" t="n">
         <v>244.2046325160447</v>
@@ -6151,7 +6151,7 @@
         <v>437.6816203490196</v>
       </c>
       <c r="L25" t="n">
-        <v>800.7468040499223</v>
+        <v>800.7468040499225</v>
       </c>
       <c r="M25" t="n">
         <v>1191.409234901878</v>
@@ -6166,31 +6166,31 @@
         <v>2204.270866719035</v>
       </c>
       <c r="Q25" t="n">
-        <v>2328.386548123956</v>
+        <v>2328.386548123957</v>
       </c>
       <c r="R25" t="n">
-        <v>2286.005723829557</v>
+        <v>2286.005723829558</v>
       </c>
       <c r="S25" t="n">
-        <v>2141.769472604457</v>
+        <v>2141.769472604458</v>
       </c>
       <c r="T25" t="n">
-        <v>1967.452490122056</v>
+        <v>1967.452490122057</v>
       </c>
       <c r="U25" t="n">
         <v>1725.799256195774</v>
       </c>
       <c r="V25" t="n">
-        <v>1518.56440093796</v>
+        <v>1518.564400937961</v>
       </c>
       <c r="W25" t="n">
-        <v>1276.596863849072</v>
+        <v>1276.596863849073</v>
       </c>
       <c r="X25" t="n">
-        <v>1096.056945899128</v>
+        <v>1096.056945899129</v>
       </c>
       <c r="Y25" t="n">
-        <v>922.7139997036716</v>
+        <v>922.7139997036725</v>
       </c>
     </row>
     <row r="26">
@@ -6200,76 +6200,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C26" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D26" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E26" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F26" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G26" t="n">
-        <v>435.1415336001584</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H26" t="n">
-        <v>137.5579332089256</v>
+        <v>137.5579332089264</v>
       </c>
       <c r="I26" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J26" t="n">
-        <v>451.845814427773</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K26" t="n">
-        <v>1106.569146563073</v>
+        <v>1002.806306216376</v>
       </c>
       <c r="L26" t="n">
-        <v>1557.603359811481</v>
+        <v>1453.840519464784</v>
       </c>
       <c r="M26" t="n">
-        <v>2091.135264483406</v>
+        <v>2432.390822294613</v>
       </c>
       <c r="N26" t="n">
-        <v>2637.914081542188</v>
+        <v>2979.169639353395</v>
       </c>
       <c r="O26" t="n">
-        <v>3482.142110232731</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P26" t="n">
-        <v>4195.497197679677</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q26" t="n">
-        <v>4653.975400188665</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R26" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S26" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T26" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U26" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V26" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W26" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X26" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y26" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="27">
@@ -6279,43 +6279,43 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>970.5927724973199</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C27" t="n">
-        <v>796.1397432161929</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D27" t="n">
-        <v>647.2053335549417</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E27" t="n">
-        <v>487.9678785494862</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F27" t="n">
-        <v>341.4333205763712</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G27" t="n">
-        <v>205.0702204089893</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H27" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I27" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J27" t="n">
-        <v>189.2383039390115</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K27" t="n">
-        <v>427.5025029193587</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L27" t="n">
-        <v>794.2006632320238</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M27" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N27" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O27" t="n">
         <v>2125.96131142685</v>
@@ -6324,7 +6324,7 @@
         <v>2436.460902902953</v>
       </c>
       <c r="Q27" t="n">
-        <v>2594.102460549553</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R27" t="n">
         <v>2593.958107142068</v>
@@ -6333,7 +6333,7 @@
         <v>2464.520220635548</v>
       </c>
       <c r="T27" t="n">
-        <v>2271.877220313404</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U27" t="n">
         <v>2043.809373447819</v>
@@ -6342,7 +6342,7 @@
         <v>1808.657265216076</v>
       </c>
       <c r="W27" t="n">
-        <v>1554.419908487875</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X27" t="n">
         <v>1346.568408282342</v>
@@ -6358,37 +6358,37 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>788.5151678215061</v>
+        <v>788.5151678215057</v>
       </c>
       <c r="C28" t="n">
-        <v>667.0286178416717</v>
+        <v>667.028617841672</v>
       </c>
       <c r="D28" t="n">
-        <v>564.3616113774093</v>
+        <v>564.3616113774096</v>
       </c>
       <c r="E28" t="n">
-        <v>463.8981507430895</v>
+        <v>463.8981507430898</v>
       </c>
       <c r="F28" t="n">
-        <v>364.4578361932524</v>
+        <v>364.4578361932528</v>
       </c>
       <c r="G28" t="n">
-        <v>244.2046325160447</v>
+        <v>244.204632516045</v>
       </c>
       <c r="H28" t="n">
-        <v>145.4370786819757</v>
+        <v>145.4370786819758</v>
       </c>
       <c r="I28" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J28" t="n">
         <v>187.1890521477366</v>
       </c>
       <c r="K28" t="n">
-        <v>437.6816203490197</v>
+        <v>437.6816203490196</v>
       </c>
       <c r="L28" t="n">
-        <v>800.7468040499225</v>
+        <v>800.7468040499223</v>
       </c>
       <c r="M28" t="n">
         <v>1191.409234901878</v>
@@ -6418,7 +6418,7 @@
         <v>1725.799256195774</v>
       </c>
       <c r="V28" t="n">
-        <v>1518.564400937961</v>
+        <v>1518.56440093796</v>
       </c>
       <c r="W28" t="n">
         <v>1276.596863849073</v>
@@ -6427,7 +6427,7 @@
         <v>1096.056945899129</v>
       </c>
       <c r="Y28" t="n">
-        <v>922.7139997036725</v>
+        <v>922.713999703672</v>
       </c>
     </row>
     <row r="29">
@@ -6452,7 +6452,7 @@
         <v>850.2139837551626</v>
       </c>
       <c r="G29" t="n">
-        <v>435.1415336001584</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H29" t="n">
         <v>137.5579332089257</v>
@@ -6461,25 +6461,25 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J29" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K29" t="n">
-        <v>618.2595390972663</v>
+        <v>1099.399357643587</v>
       </c>
       <c r="L29" t="n">
-        <v>1482.778354750621</v>
+        <v>1963.918173296941</v>
       </c>
       <c r="M29" t="n">
-        <v>2461.32865758045</v>
+        <v>2497.450077968866</v>
       </c>
       <c r="N29" t="n">
-        <v>3441.080929807096</v>
+        <v>3044.228895027648</v>
       </c>
       <c r="O29" t="n">
-        <v>4075.973927750058</v>
+        <v>3547.201365906985</v>
       </c>
       <c r="P29" t="n">
-        <v>4470.748294107237</v>
+        <v>4260.556453353931</v>
       </c>
       <c r="Q29" t="n">
         <v>4719.034655862919</v>
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>788.5151678215053</v>
+        <v>788.5151678215052</v>
       </c>
       <c r="C31" t="n">
-        <v>667.0286178416717</v>
+        <v>667.0286178416716</v>
       </c>
       <c r="D31" t="n">
-        <v>564.3616113774093</v>
+        <v>564.3616113774092</v>
       </c>
       <c r="E31" t="n">
-        <v>463.8981507430895</v>
+        <v>463.8981507430894</v>
       </c>
       <c r="F31" t="n">
-        <v>364.4578361932525</v>
+        <v>364.4578361932523</v>
       </c>
       <c r="G31" t="n">
-        <v>244.2046325160447</v>
+        <v>244.2046325160446</v>
       </c>
       <c r="H31" t="n">
         <v>145.4370786819758</v>
@@ -6643,13 +6643,13 @@
         <v>2328.386548123957</v>
       </c>
       <c r="R31" t="n">
-        <v>2286.005723829558</v>
+        <v>2286.005723829557</v>
       </c>
       <c r="S31" t="n">
-        <v>2141.769472604458</v>
+        <v>2141.769472604457</v>
       </c>
       <c r="T31" t="n">
-        <v>1967.452490122057</v>
+        <v>1967.452490122056</v>
       </c>
       <c r="U31" t="n">
         <v>1725.799256195774</v>
@@ -6658,13 +6658,13 @@
         <v>1518.56440093796</v>
       </c>
       <c r="W31" t="n">
-        <v>1276.596863849073</v>
+        <v>1276.596863849072</v>
       </c>
       <c r="X31" t="n">
-        <v>1096.056945899129</v>
+        <v>1096.056945899128</v>
       </c>
       <c r="Y31" t="n">
-        <v>922.7139997036718</v>
+        <v>922.7139997036716</v>
       </c>
     </row>
     <row r="32">
@@ -6674,22 +6674,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C32" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749763</v>
       </c>
       <c r="D32" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E32" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F32" t="n">
-        <v>850.2139837551626</v>
+        <v>850.2139837551613</v>
       </c>
       <c r="G32" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001587</v>
       </c>
       <c r="H32" t="n">
         <v>137.5579332089257</v>
@@ -6701,16 +6701,16 @@
         <v>451.8458144277729</v>
       </c>
       <c r="K32" t="n">
-        <v>1070.832524924162</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L32" t="n">
-        <v>1521.86673817257</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M32" t="n">
-        <v>2055.398642844495</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N32" t="n">
-        <v>2602.177459903277</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O32" t="n">
         <v>3482.142110232732</v>
@@ -6725,25 +6725,25 @@
         <v>4778.051722419721</v>
       </c>
       <c r="S32" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T32" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U32" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604873</v>
       </c>
       <c r="V32" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261302</v>
       </c>
       <c r="W32" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991188</v>
       </c>
       <c r="X32" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730108</v>
       </c>
       <c r="Y32" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="33">
@@ -6753,37 +6753,37 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C33" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D33" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E33" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F33" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G33" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089891</v>
       </c>
       <c r="H33" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I33" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J33" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K33" t="n">
         <v>427.5025029193589</v>
       </c>
       <c r="L33" t="n">
-        <v>794.2006632320242</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M33" t="n">
         <v>1241.47698845434</v>
@@ -6819,10 +6819,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X33" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y33" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="34">
@@ -6832,37 +6832,37 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>788.515167821505</v>
+        <v>788.5151678215053</v>
       </c>
       <c r="C34" t="n">
-        <v>667.0286178416713</v>
+        <v>667.0286178416717</v>
       </c>
       <c r="D34" t="n">
-        <v>564.361611377409</v>
+        <v>564.3616113774093</v>
       </c>
       <c r="E34" t="n">
-        <v>463.8981507430892</v>
+        <v>463.8981507430895</v>
       </c>
       <c r="F34" t="n">
-        <v>364.4578361932523</v>
+        <v>364.4578361932524</v>
       </c>
       <c r="G34" t="n">
-        <v>244.2046325160446</v>
+        <v>244.2046325160447</v>
       </c>
       <c r="H34" t="n">
-        <v>145.4370786819757</v>
+        <v>145.4370786819758</v>
       </c>
       <c r="I34" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J34" t="n">
-        <v>187.1890521477366</v>
+        <v>187.1890521477367</v>
       </c>
       <c r="K34" t="n">
-        <v>437.6816203490196</v>
+        <v>437.6816203490197</v>
       </c>
       <c r="L34" t="n">
-        <v>800.7468040499224</v>
+        <v>800.7468040499225</v>
       </c>
       <c r="M34" t="n">
         <v>1191.409234901878</v>
@@ -6880,7 +6880,7 @@
         <v>2328.386548123956</v>
       </c>
       <c r="R34" t="n">
-        <v>2286.005723829557</v>
+        <v>2286.005723829558</v>
       </c>
       <c r="S34" t="n">
         <v>2141.769472604457</v>
@@ -6889,19 +6889,19 @@
         <v>1967.452490122056</v>
       </c>
       <c r="U34" t="n">
-        <v>1725.799256195773</v>
+        <v>1725.799256195774</v>
       </c>
       <c r="V34" t="n">
-        <v>1518.564400937959</v>
+        <v>1518.56440093796</v>
       </c>
       <c r="W34" t="n">
-        <v>1276.596863849072</v>
+        <v>1276.596863849073</v>
       </c>
       <c r="X34" t="n">
-        <v>1096.056945899128</v>
+        <v>1096.056945899129</v>
       </c>
       <c r="Y34" t="n">
-        <v>922.7139997036713</v>
+        <v>922.7139997036718</v>
       </c>
     </row>
     <row r="35">
@@ -6926,7 +6926,7 @@
         <v>850.2139837551626</v>
       </c>
       <c r="G35" t="n">
-        <v>435.1415336001584</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H35" t="n">
         <v>137.5579332089257</v>
@@ -6935,28 +6935,28 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J35" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K35" t="n">
-        <v>1106.569146563073</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L35" t="n">
-        <v>1557.603359811481</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M35" t="n">
-        <v>2091.135264483406</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N35" t="n">
-        <v>2637.914081542188</v>
+        <v>3441.080929807096</v>
       </c>
       <c r="O35" t="n">
-        <v>3482.142110232732</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P35" t="n">
-        <v>4195.497197679678</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q35" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R35" t="n">
         <v>4778.051722419721</v>
@@ -6990,37 +6990,37 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C36" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D36" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E36" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F36" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G36" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089891</v>
       </c>
       <c r="H36" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I36" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J36" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390116</v>
       </c>
       <c r="K36" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193586</v>
       </c>
       <c r="L36" t="n">
-        <v>794.2006632320242</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M36" t="n">
         <v>1241.47698845434</v>
@@ -7056,10 +7056,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X36" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y36" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="37">
@@ -7069,16 +7069,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>788.5151678215045</v>
+        <v>788.5151678215054</v>
       </c>
       <c r="C37" t="n">
-        <v>667.0286178416709</v>
+        <v>667.0286178416718</v>
       </c>
       <c r="D37" t="n">
-        <v>564.3616113774085</v>
+        <v>564.3616113774094</v>
       </c>
       <c r="E37" t="n">
-        <v>463.8981507430888</v>
+        <v>463.8981507430893</v>
       </c>
       <c r="F37" t="n">
         <v>364.4578361932523</v>
@@ -7096,10 +7096,10 @@
         <v>187.1890521477366</v>
       </c>
       <c r="K37" t="n">
-        <v>437.6816203490196</v>
+        <v>437.6816203490197</v>
       </c>
       <c r="L37" t="n">
-        <v>800.7468040499223</v>
+        <v>800.7468040499224</v>
       </c>
       <c r="M37" t="n">
         <v>1191.409234901878</v>
@@ -7120,25 +7120,25 @@
         <v>2286.005723829557</v>
       </c>
       <c r="S37" t="n">
-        <v>2141.769472604456</v>
+        <v>2141.769472604457</v>
       </c>
       <c r="T37" t="n">
         <v>1967.452490122056</v>
       </c>
       <c r="U37" t="n">
-        <v>1725.799256195773</v>
+        <v>1725.799256195774</v>
       </c>
       <c r="V37" t="n">
-        <v>1518.564400937959</v>
+        <v>1518.56440093796</v>
       </c>
       <c r="W37" t="n">
-        <v>1276.596863849072</v>
+        <v>1276.596863849073</v>
       </c>
       <c r="X37" t="n">
-        <v>1096.056945899128</v>
+        <v>1096.056945899129</v>
       </c>
       <c r="Y37" t="n">
-        <v>922.7139997036709</v>
+        <v>922.7139997036718</v>
       </c>
     </row>
     <row r="38">
@@ -7148,22 +7148,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C38" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749763</v>
       </c>
       <c r="D38" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E38" t="n">
         <v>1261.199888544769</v>
       </c>
       <c r="F38" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551613</v>
       </c>
       <c r="G38" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001587</v>
       </c>
       <c r="H38" t="n">
         <v>137.5579332089257</v>
@@ -7175,16 +7175,16 @@
         <v>451.8458144277729</v>
       </c>
       <c r="K38" t="n">
-        <v>785.6651881176194</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L38" t="n">
-        <v>1236.699401366028</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M38" t="n">
-        <v>1770.231306037953</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N38" t="n">
-        <v>2602.177459903277</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O38" t="n">
         <v>3482.142110232732</v>
@@ -7199,25 +7199,25 @@
         <v>4778.051722419721</v>
       </c>
       <c r="S38" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T38" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U38" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604873</v>
       </c>
       <c r="V38" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261302</v>
       </c>
       <c r="W38" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.421286991188</v>
       </c>
       <c r="X38" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730108</v>
       </c>
       <c r="Y38" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="39">
@@ -7227,19 +7227,19 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>970.5927724973194</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C39" t="n">
-        <v>796.1397432161924</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D39" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E39" t="n">
-        <v>487.9678785494857</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F39" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G39" t="n">
         <v>205.0702204089889</v>
@@ -7251,10 +7251,10 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J39" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390115</v>
       </c>
       <c r="K39" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193587</v>
       </c>
       <c r="L39" t="n">
         <v>794.2006632320242</v>
@@ -7269,22 +7269,22 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P39" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q39" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R39" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S39" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T39" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U39" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V39" t="n">
         <v>1808.657265216076</v>
@@ -7306,16 +7306,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>788.5151678215052</v>
+        <v>788.5151678215055</v>
       </c>
       <c r="C40" t="n">
-        <v>667.0286178416716</v>
+        <v>667.0286178416719</v>
       </c>
       <c r="D40" t="n">
-        <v>564.3616113774092</v>
+        <v>564.3616113774094</v>
       </c>
       <c r="E40" t="n">
-        <v>463.8981507430894</v>
+        <v>463.8981507430896</v>
       </c>
       <c r="F40" t="n">
         <v>364.4578361932524</v>
@@ -7336,7 +7336,7 @@
         <v>437.6816203490196</v>
       </c>
       <c r="L40" t="n">
-        <v>800.7468040499224</v>
+        <v>800.7468040499223</v>
       </c>
       <c r="M40" t="n">
         <v>1191.409234901878</v>
@@ -7351,31 +7351,31 @@
         <v>2204.270866719035</v>
       </c>
       <c r="Q40" t="n">
-        <v>2328.386548123956</v>
+        <v>2328.386548123957</v>
       </c>
       <c r="R40" t="n">
-        <v>2286.005723829557</v>
+        <v>2286.005723829558</v>
       </c>
       <c r="S40" t="n">
-        <v>2141.769472604457</v>
+        <v>2141.769472604458</v>
       </c>
       <c r="T40" t="n">
-        <v>1967.452490122056</v>
+        <v>1967.452490122057</v>
       </c>
       <c r="U40" t="n">
-        <v>1725.799256195773</v>
+        <v>1725.799256195774</v>
       </c>
       <c r="V40" t="n">
         <v>1518.56440093796</v>
       </c>
       <c r="W40" t="n">
-        <v>1276.596863849072</v>
+        <v>1276.596863849073</v>
       </c>
       <c r="X40" t="n">
-        <v>1096.056945899128</v>
+        <v>1096.056945899129</v>
       </c>
       <c r="Y40" t="n">
-        <v>922.7139997036716</v>
+        <v>922.713999703672</v>
       </c>
     </row>
     <row r="41">
@@ -7388,16 +7388,16 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C41" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D41" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E41" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F41" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G41" t="n">
         <v>435.1415336001585</v>
@@ -7409,19 +7409,19 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J41" t="n">
-        <v>451.8458144277729</v>
+        <v>451.8458144277728</v>
       </c>
       <c r="K41" t="n">
-        <v>1106.569146563073</v>
+        <v>1106.569146563072</v>
       </c>
       <c r="L41" t="n">
         <v>1557.603359811481</v>
       </c>
       <c r="M41" t="n">
-        <v>2091.135264483406</v>
+        <v>2091.135264483405</v>
       </c>
       <c r="N41" t="n">
-        <v>2637.914081542188</v>
+        <v>2637.914081542187</v>
       </c>
       <c r="O41" t="n">
         <v>3482.142110232732</v>
@@ -7479,22 +7479,22 @@
         <v>341.4333205763708</v>
       </c>
       <c r="G42" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089894</v>
       </c>
       <c r="H42" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I42" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J42" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390115</v>
       </c>
       <c r="K42" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193586</v>
       </c>
       <c r="L42" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320239</v>
       </c>
       <c r="M42" t="n">
         <v>1241.47698845434</v>
@@ -7552,7 +7552,7 @@
         <v>564.3616113774094</v>
       </c>
       <c r="E43" t="n">
-        <v>463.8981507430895</v>
+        <v>463.8981507430894</v>
       </c>
       <c r="F43" t="n">
         <v>364.4578361932524</v>
@@ -7622,43 +7622,43 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C44" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D44" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E44" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F44" t="n">
-        <v>850.2139837551622</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G44" t="n">
         <v>435.1415336001592</v>
       </c>
       <c r="H44" t="n">
-        <v>137.5579332089256</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I44" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J44" t="n">
-        <v>451.8458144277731</v>
+        <v>451.8458144277728</v>
       </c>
       <c r="K44" t="n">
-        <v>1106.569146563073</v>
+        <v>1106.569146563072</v>
       </c>
       <c r="L44" t="n">
-        <v>1557.603359811482</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M44" t="n">
-        <v>2091.135264483406</v>
+        <v>2091.135264483405</v>
       </c>
       <c r="N44" t="n">
-        <v>2637.914081542189</v>
+        <v>2637.914081542187</v>
       </c>
       <c r="O44" t="n">
         <v>3482.142110232732</v>
@@ -7676,22 +7676,22 @@
         <v>4667.761053946816</v>
       </c>
       <c r="T44" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U44" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V44" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W44" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X44" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y44" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="45">
@@ -7701,49 +7701,49 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>970.5927724973195</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C45" t="n">
-        <v>796.1397432161925</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D45" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E45" t="n">
-        <v>487.9678785494858</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F45" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G45" t="n">
-        <v>205.0702204089889</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H45" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I45" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J45" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K45" t="n">
-        <v>427.5025029193591</v>
+        <v>427.5025029193588</v>
       </c>
       <c r="L45" t="n">
-        <v>794.2006632320247</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M45" t="n">
-        <v>1241.476988454341</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N45" t="n">
-        <v>1715.000032008796</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O45" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P45" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q45" t="n">
         <v>2594.102460549552</v>
@@ -7758,7 +7758,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U45" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V45" t="n">
         <v>1808.657265216076</v>
@@ -7767,10 +7767,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X45" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y45" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="46">
@@ -7780,19 +7780,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>788.5151678215053</v>
+        <v>788.5151678215052</v>
       </c>
       <c r="C46" t="n">
-        <v>667.0286178416717</v>
+        <v>667.0286178416716</v>
       </c>
       <c r="D46" t="n">
         <v>564.3616113774092</v>
       </c>
       <c r="E46" t="n">
-        <v>463.8981507430893</v>
+        <v>463.8981507430894</v>
       </c>
       <c r="F46" t="n">
-        <v>364.4578361932522</v>
+        <v>364.4578361932524</v>
       </c>
       <c r="G46" t="n">
         <v>244.2046325160447</v>
@@ -7810,34 +7810,34 @@
         <v>437.6816203490196</v>
       </c>
       <c r="L46" t="n">
-        <v>800.7468040499225</v>
+        <v>800.7468040499224</v>
       </c>
       <c r="M46" t="n">
         <v>1191.409234901878</v>
       </c>
       <c r="N46" t="n">
-        <v>1579.32299686015</v>
+        <v>1579.322996860149</v>
       </c>
       <c r="O46" t="n">
-        <v>1925.15798103297</v>
+        <v>1925.157981032969</v>
       </c>
       <c r="P46" t="n">
         <v>2204.270866719035</v>
       </c>
       <c r="Q46" t="n">
-        <v>2328.386548123957</v>
+        <v>2328.386548123956</v>
       </c>
       <c r="R46" t="n">
-        <v>2286.005723829558</v>
+        <v>2286.005723829557</v>
       </c>
       <c r="S46" t="n">
-        <v>2141.769472604458</v>
+        <v>2141.769472604457</v>
       </c>
       <c r="T46" t="n">
-        <v>1967.452490122057</v>
+        <v>1967.452490122056</v>
       </c>
       <c r="U46" t="n">
-        <v>1725.799256195774</v>
+        <v>1725.799256195773</v>
       </c>
       <c r="V46" t="n">
         <v>1518.56440093796</v>
@@ -7849,7 +7849,7 @@
         <v>1096.056945899129</v>
       </c>
       <c r="Y46" t="n">
-        <v>922.7139997036718</v>
+        <v>922.7139997036716</v>
       </c>
     </row>
   </sheetData>
@@ -8070,10 +8070,10 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O3" t="n">
-        <v>274.4264991783515</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>199.0269485415591</v>
       </c>
       <c r="Q3" t="n">
         <v>210.0772877358491</v>
@@ -8301,7 +8301,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>346.2692436516228</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
         <v>479.3423743435536</v>
@@ -8313,7 +8313,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747169</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8529,13 +8529,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270195</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719079</v>
       </c>
       <c r="L9" t="n">
-        <v>327.421860962789</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
         <v>465.7050637499999</v>
@@ -8687,13 +8687,13 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L11" t="n">
-        <v>345.3140082169171</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
@@ -8702,13 +8702,13 @@
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>380.8001812627454</v>
+        <v>344.7025836476838</v>
       </c>
       <c r="P11" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R11" t="n">
         <v>65.71641987298243</v>
@@ -8924,13 +8924,13 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L14" t="n">
-        <v>411.0304280899001</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
@@ -8939,16 +8939,16 @@
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>380.8001812627454</v>
+        <v>344.7025836476838</v>
       </c>
       <c r="P14" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9161,31 +9161,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>297.8289162490807</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>380.8001812627454</v>
+        <v>344.7025836476838</v>
       </c>
       <c r="P17" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9398,25 +9398,25 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>292.568571519122</v>
       </c>
       <c r="O20" t="n">
-        <v>344.7025836476838</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
         <v>212.3149906599047</v>
@@ -9641,7 +9641,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>344.7025836476828</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
@@ -9650,7 +9650,7 @@
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>344.7025836476829</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
         <v>321.7987081714826</v>
@@ -9875,19 +9875,19 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K26" t="n">
-        <v>324.1454125711647</v>
+        <v>219.3344627260164</v>
       </c>
       <c r="L26" t="n">
         <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N26" t="n">
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>344.7025836476822</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
         <v>321.7987081714826</v>
@@ -10109,28 +10109,28 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>316.9032015413811</v>
       </c>
       <c r="L29" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M29" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>133.2530576400255</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -10349,7 +10349,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
-        <v>288.0478149561032</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
@@ -10361,7 +10361,7 @@
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>380.8001812627454</v>
+        <v>344.7025836476838</v>
       </c>
       <c r="P32" t="n">
         <v>321.7987081714826</v>
@@ -10583,31 +10583,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O35" t="n">
-        <v>344.7025836476838</v>
+        <v>133.2530576400255</v>
       </c>
       <c r="P35" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10823,7 +10823,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L38" t="n">
         <v>0</v>
@@ -10832,10 +10832,10 @@
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>288.0478149561031</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>380.8001812627454</v>
+        <v>344.7025836476838</v>
       </c>
       <c r="P38" t="n">
         <v>321.7987081714826</v>
@@ -11072,7 +11072,7 @@
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>344.7025836476838</v>
+        <v>344.7025836476853</v>
       </c>
       <c r="P41" t="n">
         <v>321.7987081714826</v>
@@ -11309,7 +11309,7 @@
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>344.7025836476826</v>
+        <v>344.7025836476853</v>
       </c>
       <c r="P44" t="n">
         <v>321.7987081714826</v>
@@ -22550,13 +22550,13 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>284.6182999417528</v>
+        <v>247.9415314543095</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>158.6152577085823</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -22592,28 +22592,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>231.9311056659681</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -22714,7 +22714,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -22765,7 +22765,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>56.51013809491934</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -23416,22 +23416,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23461,10 +23461,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23476,10 +23476,10 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>256.5023825970379</v>
       </c>
       <c r="X13" t="n">
-        <v>183.3640346411381</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23653,13 +23653,13 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -23668,7 +23668,7 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>111.2719141400465</v>
       </c>
       <c r="I16" t="n">
         <v>96.35242040983809</v>
@@ -23707,7 +23707,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>160.897150971287</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23716,7 +23716,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23899,7 +23899,7 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>4.244158708171511</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>166.0258082590282</v>
@@ -23941,19 +23941,19 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>117.4326202529141</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24127,19 +24127,19 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.015836189365501</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -24184,13 +24184,13 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>205.3909338684907</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1229804.693016118</v>
+        <v>1229804.693016119</v>
       </c>
     </row>
     <row r="3">
@@ -26314,10 +26314,10 @@
         <v>17181.37891796535</v>
       </c>
       <c r="C2" t="n">
+        <v>20526.04424660708</v>
+      </c>
+      <c r="D2" t="n">
         <v>20526.04424660709</v>
-      </c>
-      <c r="D2" t="n">
-        <v>20526.04424660707</v>
       </c>
       <c r="E2" t="n">
         <v>19854.08934434915</v>
@@ -26335,25 +26335,25 @@
         <v>20526.0442466071</v>
       </c>
       <c r="J2" t="n">
-        <v>20526.04424660704</v>
+        <v>20526.0442466071</v>
       </c>
       <c r="K2" t="n">
+        <v>20526.0442466071</v>
+      </c>
+      <c r="L2" t="n">
         <v>20526.04424660709</v>
       </c>
-      <c r="L2" t="n">
+      <c r="M2" t="n">
+        <v>20526.04424660709</v>
+      </c>
+      <c r="N2" t="n">
+        <v>20526.04424660709</v>
+      </c>
+      <c r="O2" t="n">
+        <v>20526.04424660708</v>
+      </c>
+      <c r="P2" t="n">
         <v>20526.0442466071</v>
-      </c>
-      <c r="M2" t="n">
-        <v>20526.0442466071</v>
-      </c>
-      <c r="N2" t="n">
-        <v>20526.0442466071</v>
-      </c>
-      <c r="O2" t="n">
-        <v>20526.0442466071</v>
-      </c>
-      <c r="P2" t="n">
-        <v>20526.04424660709</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>727377.4139934068</v>
+        <v>727377.4139934067</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26384,7 +26384,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>37580.10929487404</v>
+        <v>37580.10929487406</v>
       </c>
       <c r="J3" t="n">
         <v>176423.2191925929</v>
@@ -26399,10 +26399,10 @@
         <v>129642.3148389448</v>
       </c>
       <c r="N3" t="n">
-        <v>37580.10929487403</v>
+        <v>37580.109294874</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-11</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26418,46 +26418,46 @@
         <v>106987.6929218026</v>
       </c>
       <c r="C4" t="n">
-        <v>183348.6868571279</v>
+        <v>183348.686857128</v>
       </c>
       <c r="D4" t="n">
         <v>183348.686857128</v>
       </c>
       <c r="E4" t="n">
-        <v>18148.49231918991</v>
+        <v>18148.4923191899</v>
       </c>
       <c r="F4" t="n">
         <v>18148.49231918991</v>
       </c>
       <c r="G4" t="n">
-        <v>18148.49231918991</v>
+        <v>18148.49231918994</v>
       </c>
       <c r="H4" t="n">
-        <v>18148.49231918994</v>
+        <v>18148.49231918989</v>
       </c>
       <c r="I4" t="n">
         <v>33605.65329740898</v>
       </c>
       <c r="J4" t="n">
-        <v>33605.65329740897</v>
+        <v>33605.65329740899</v>
       </c>
       <c r="K4" t="n">
         <v>33605.65329740899</v>
       </c>
       <c r="L4" t="n">
-        <v>33605.653297409</v>
+        <v>33605.65329740899</v>
       </c>
       <c r="M4" t="n">
-        <v>33605.65329740899</v>
+        <v>33605.65329740901</v>
       </c>
       <c r="N4" t="n">
-        <v>33605.65329740896</v>
+        <v>33605.65329740898</v>
       </c>
       <c r="O4" t="n">
-        <v>33605.65329740896</v>
+        <v>33605.65329740901</v>
       </c>
       <c r="P4" t="n">
-        <v>33605.65329740896</v>
+        <v>33605.65329740901</v>
       </c>
     </row>
     <row r="5">
@@ -26519,31 +26519,31 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-762633.2712817913</v>
+        <v>-762967.7378146553</v>
       </c>
       <c r="C6" t="n">
+        <v>-245681.7206739304</v>
+      </c>
+      <c r="D6" t="n">
         <v>-245681.7206739303</v>
       </c>
-      <c r="D6" t="n">
-        <v>-245681.7206739304</v>
-      </c>
       <c r="E6" t="n">
-        <v>-822055.3352219613</v>
+        <v>-822122.5307121869</v>
       </c>
       <c r="F6" t="n">
-        <v>-94677.92122855442</v>
+        <v>-94745.11671878021</v>
       </c>
       <c r="G6" t="n">
-        <v>-94677.92122855442</v>
+        <v>-94745.11671878023</v>
       </c>
       <c r="H6" t="n">
-        <v>-94677.92122855445</v>
+        <v>-94745.11671878018</v>
       </c>
       <c r="I6" t="n">
-        <v>-150992.389359778</v>
+        <v>-150992.3893597781</v>
       </c>
       <c r="J6" t="n">
-        <v>-289835.4992574969</v>
+        <v>-289835.499257497</v>
       </c>
       <c r="K6" t="n">
         <v>-113412.280064904</v>
@@ -26558,7 +26558,7 @@
         <v>-150992.389359778</v>
       </c>
       <c r="O6" t="n">
-        <v>-113412.280064904</v>
+        <v>-113412.2800649041</v>
       </c>
       <c r="P6" t="n">
         <v>-113412.280064904</v>
@@ -26704,7 +26704,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="J2" t="n">
         <v>46.97513661859256</v>
@@ -26713,19 +26713,19 @@
         <v>46.97513661859256</v>
       </c>
       <c r="L2" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="M2" t="n">
         <v>46.97513661859259</v>
       </c>
       <c r="N2" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="O2" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="P2" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859258</v>
       </c>
     </row>
     <row r="3">
@@ -26735,7 +26735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170866</v>
@@ -26759,7 +26759,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="J3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="K3" t="n">
         <v>1089.776700593298</v>
@@ -26777,7 +26777,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="P3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
     </row>
     <row r="4">
@@ -26787,10 +26787,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="D4" t="n">
         <v>674.2872727545556</v>
@@ -26926,7 +26926,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26941,10 +26941,10 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-14</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>712.0330363762117</v>
+        <v>712.0330363762116</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545554</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27163,7 +27163,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27379,16 +27379,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>248.2607880331291</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -27427,7 +27427,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -27439,7 +27439,7 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>117.3098630514449</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -27546,19 +27546,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,28 +27579,28 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>69.82361682150315</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27613,28 +27613,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>259.1534134144345</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,7 +27661,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
@@ -27673,7 +27673,7 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>132.4538175337355</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -27682,7 +27682,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27771,31 +27771,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>164.649582919662</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,10 +27816,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27834,13 +27834,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>130.7626639532037</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27850,13 +27850,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -27865,7 +27865,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>335.6577363191324</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
@@ -27901,22 +27901,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>333.322230615241</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -28014,13 +28014,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>59.30821556748147</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
@@ -28029,10 +28029,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,19 +28053,19 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>19.6607792729252</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -29193,76 +29193,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C25" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D25" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E25" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F25" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G25" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H25" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I25" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="J25" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="K25" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="L25" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="M25" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="N25" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="O25" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="P25" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Q25" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="R25" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="S25" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T25" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U25" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V25" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W25" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X25" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y25" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="26">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="J34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="K34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="L34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="M34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="N34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="O34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="P34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Q34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="R34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="S34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="35">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="C40" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="D40" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="E40" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="F40" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="G40" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="H40" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="I40" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="J40" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="K40" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="L40" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="M40" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="N40" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="O40" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="P40" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="Q40" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="R40" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="S40" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="T40" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="U40" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="V40" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="W40" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="X40" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="Y40" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859253</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="C43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="D43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="E43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="F43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="G43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="H43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="I43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="J43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="K43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="L43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="M43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="N43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="O43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="P43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Q43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="R43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="S43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="T43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="U43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="V43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="W43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="X43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Y43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="C46" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="D46" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="E46" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="F46" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="G46" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="H46" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="I46" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="J46" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="K46" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="L46" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="M46" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="N46" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="O46" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="P46" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="Q46" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="R46" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="S46" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="T46" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="U46" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="V46" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="W46" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="X46" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="Y46" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859258</v>
       </c>
     </row>
   </sheetData>
@@ -31045,19 +31045,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31072,13 +31072,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31118,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31145,22 +31145,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31197,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31221,16 +31221,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31276,13 +31276,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
@@ -31300,22 +31300,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S5" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I6" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31388,16 +31388,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T6" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,19 +31434,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J7" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31458,13 +31458,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R7" t="n">
         <v>30.62819939701163</v>
@@ -31473,7 +31473,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31513,13 +31513,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
@@ -31537,22 +31537,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31592,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31625,16 +31625,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,19 +31671,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31695,13 +31695,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
         <v>30.62819939701163</v>
@@ -31710,7 +31710,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -32935,7 +32935,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H26" t="n">
         <v>44.86703772844668</v>
@@ -32944,40 +32944,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J26" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K26" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L26" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M26" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N26" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O26" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P26" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q26" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R26" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S26" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T26" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U26" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33014,46 +33014,46 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H27" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I27" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J27" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K27" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L27" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M27" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N27" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O27" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P27" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q27" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R27" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S27" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T27" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U27" t="n">
         <v>0.1542136840462215</v>
@@ -33096,43 +33096,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H28" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I28" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J28" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K28" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L28" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M28" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N28" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O28" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P28" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q28" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R28" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S28" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T28" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U28" t="n">
         <v>0.1071911508780295</v>
@@ -33509,7 +33509,7 @@
         <v>593.9283018233475</v>
       </c>
       <c r="N33" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O33" t="n">
         <v>557.708647897025</v>
@@ -34120,43 +34120,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H41" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I41" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J41" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K41" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L41" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M41" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N41" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O41" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P41" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q41" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R41" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S41" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T41" t="n">
         <v>19.1778794245112</v>
@@ -34205,40 +34205,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I42" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J42" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K42" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L42" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M42" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N42" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O42" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P42" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q42" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R42" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S42" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T42" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U42" t="n">
         <v>0.1542136840462215</v>
@@ -34278,13 +34278,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H43" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I43" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J43" t="n">
         <v>138.937596729739</v>
@@ -34293,16 +34293,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L43" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M43" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N43" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O43" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P43" t="n">
         <v>237.6785118802169</v>
@@ -34311,16 +34311,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R43" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S43" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T43" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,49 +34357,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>4.3810118616816</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H44" t="n">
-        <v>44.8670377284467</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I44" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J44" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K44" t="n">
-        <v>557.2811376003813</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L44" t="n">
-        <v>691.3565293623196</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M44" t="n">
-        <v>769.2673490574997</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N44" t="n">
-        <v>781.7148990095027</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O44" t="n">
-        <v>738.1512123099062</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P44" t="n">
-        <v>629.9949819746416</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q44" t="n">
-        <v>473.0999946781692</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R44" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S44" t="n">
-        <v>99.83230779806955</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T44" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U44" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H45" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I45" t="n">
-        <v>80.70516131752261</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J45" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K45" t="n">
-        <v>378.5123470353159</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L45" t="n">
-        <v>508.9565619138798</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M45" t="n">
-        <v>593.9283018233477</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N45" t="n">
-        <v>609.6478166837927</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O45" t="n">
-        <v>557.7086478970236</v>
+        <v>557.7086478970255</v>
       </c>
       <c r="P45" t="n">
-        <v>447.6103584002929</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q45" t="n">
-        <v>299.2156706987488</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R45" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S45" t="n">
-        <v>43.53966346238318</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T45" t="n">
-        <v>9.448158375898503</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1542136840462216</v>
+        <v>0.1542136840462215</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,49 +34515,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H46" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I46" t="n">
-        <v>59.09805451742022</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J46" t="n">
-        <v>138.9375967297391</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K46" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L46" t="n">
-        <v>292.1673469098821</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M46" t="n">
-        <v>308.0495024316434</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N46" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O46" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P46" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q46" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R46" t="n">
-        <v>88.3612387071222</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S46" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T46" t="n">
-        <v>8.396640152112299</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,19 +34696,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34775,7 +34775,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34787,13 +34787,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
-        <v>325.1459203262118</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>220.2054057751866</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -34948,10 +34948,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35012,7 +35012,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35021,19 +35021,19 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
-        <v>410.0055067279167</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
         <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P6" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535667</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,7 +35094,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35109,7 +35109,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35185,10 +35185,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35252,10 +35252,10 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624591</v>
       </c>
       <c r="L9" t="n">
-        <v>365.2844632307155</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
         <v>529.4413268262938</v>
@@ -35264,7 +35264,7 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
         <v>339.6412258735646</v>
@@ -35331,7 +35331,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35346,7 +35346,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35407,13 +35407,13 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K11" t="n">
         <v>661.3366991265652</v>
       </c>
       <c r="L11" t="n">
-        <v>800.9041226092493</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M11" t="n">
         <v>538.9211158302268</v>
@@ -35422,13 +35422,13 @@
         <v>552.3018354129115</v>
       </c>
       <c r="O11" t="n">
-        <v>888.8531821509645</v>
+        <v>852.7555845359029</v>
       </c>
       <c r="P11" t="n">
         <v>720.5606943908545</v>
       </c>
       <c r="Q11" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R11" t="n">
         <v>125.3296184152072</v>
@@ -35644,13 +35644,13 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K14" t="n">
         <v>661.3366991265652</v>
       </c>
       <c r="L14" t="n">
-        <v>866.6205424822323</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M14" t="n">
         <v>538.9211158302268</v>
@@ -35659,16 +35659,16 @@
         <v>552.3018354129115</v>
       </c>
       <c r="O14" t="n">
-        <v>888.8531821509645</v>
+        <v>852.7555845359029</v>
       </c>
       <c r="P14" t="n">
         <v>720.5606943908545</v>
       </c>
       <c r="Q14" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R14" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35881,31 +35881,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K17" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L17" t="n">
         <v>455.5901143923322</v>
       </c>
       <c r="M17" t="n">
-        <v>836.7500320793075</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N17" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O17" t="n">
-        <v>888.8531821509645</v>
+        <v>852.7555845359029</v>
       </c>
       <c r="P17" t="n">
         <v>720.5606943908545</v>
       </c>
       <c r="Q17" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R17" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -36118,25 +36118,25 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K20" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L20" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M20" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N20" t="n">
-        <v>552.3018354129115</v>
+        <v>844.8704069320335</v>
       </c>
       <c r="O20" t="n">
-        <v>852.7555845359029</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P20" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q20" t="n">
         <v>463.1092954636242</v>
@@ -36361,7 +36361,7 @@
         <v>661.3366991265652</v>
       </c>
       <c r="L23" t="n">
-        <v>455.5901143923322</v>
+        <v>800.292698040015</v>
       </c>
       <c r="M23" t="n">
         <v>538.9211158302268</v>
@@ -36370,7 +36370,7 @@
         <v>552.3018354129115</v>
       </c>
       <c r="O23" t="n">
-        <v>852.755584535902</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P23" t="n">
         <v>720.5606943908545</v>
@@ -36513,7 +36513,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>92.55355323165875</v>
+        <v>92.55355323165878</v>
       </c>
       <c r="K25" t="n">
         <v>253.0227961629121</v>
@@ -36592,31 +36592,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>359.8836161407864</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K26" t="n">
-        <v>661.3366991265653</v>
+        <v>556.5257492814169</v>
       </c>
       <c r="L26" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M26" t="n">
-        <v>538.9211158302269</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N26" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O26" t="n">
-        <v>852.7555845359016</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P26" t="n">
-        <v>720.5606943908547</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q26" t="n">
-        <v>463.1092954636243</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R26" t="n">
-        <v>125.3296184152073</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,25 +36671,25 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K27" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L27" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M27" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N27" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O27" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P27" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q27" t="n">
         <v>159.2338966127272</v>
@@ -36750,10 +36750,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>92.55355323165881</v>
+        <v>92.55355323165878</v>
       </c>
       <c r="K28" t="n">
-        <v>253.0227961629122</v>
+        <v>253.0227961629121</v>
       </c>
       <c r="L28" t="n">
         <v>366.7325087887907</v>
@@ -36762,16 +36762,16 @@
         <v>394.6085160120764</v>
       </c>
       <c r="N28" t="n">
-        <v>391.8320827861327</v>
+        <v>391.8320827861326</v>
       </c>
       <c r="O28" t="n">
-        <v>349.3282668412324</v>
+        <v>349.3282668412323</v>
       </c>
       <c r="P28" t="n">
         <v>281.932207763703</v>
       </c>
       <c r="Q28" t="n">
-        <v>125.3693751564863</v>
+        <v>125.3693751564862</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,28 +36829,28 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K29" t="n">
-        <v>337.1912865554005</v>
+        <v>654.0944880967816</v>
       </c>
       <c r="L29" t="n">
         <v>873.2513289427826</v>
       </c>
       <c r="M29" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N29" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O29" t="n">
-        <v>641.3060585282446</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P29" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q29" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R29" t="n">
         <v>59.61319854222478</v>
@@ -36999,7 +36999,7 @@
         <v>394.6085160120764</v>
       </c>
       <c r="N31" t="n">
-        <v>391.8320827861327</v>
+        <v>391.8320827861326</v>
       </c>
       <c r="O31" t="n">
         <v>349.3282668412323</v>
@@ -37069,7 +37069,7 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K32" t="n">
-        <v>625.2391015115037</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L32" t="n">
         <v>455.5901143923322</v>
@@ -37081,7 +37081,7 @@
         <v>552.3018354129115</v>
       </c>
       <c r="O32" t="n">
-        <v>888.8531821509645</v>
+        <v>852.7555845359029</v>
       </c>
       <c r="P32" t="n">
         <v>720.5606943908545</v>
@@ -37157,7 +37157,7 @@
         <v>451.7942679013292</v>
       </c>
       <c r="N33" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O33" t="n">
         <v>415.1124034525806</v>
@@ -37224,10 +37224,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>92.55355323165881</v>
+        <v>92.55355323165878</v>
       </c>
       <c r="K34" t="n">
-        <v>253.0227961629122</v>
+        <v>253.0227961629121</v>
       </c>
       <c r="L34" t="n">
         <v>366.7325087887907</v>
@@ -37303,31 +37303,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K35" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L35" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M35" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N35" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O35" t="n">
-        <v>852.7555845359029</v>
+        <v>641.3060585282446</v>
       </c>
       <c r="P35" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q35" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R35" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37543,7 +37543,7 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K38" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L38" t="n">
         <v>455.5901143923322</v>
@@ -37552,10 +37552,10 @@
         <v>538.9211158302268</v>
       </c>
       <c r="N38" t="n">
-        <v>840.3496503690146</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O38" t="n">
-        <v>888.8531821509645</v>
+        <v>852.7555845359029</v>
       </c>
       <c r="P38" t="n">
         <v>720.5606943908545</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>92.55355323165878</v>
+        <v>92.55355323165875</v>
       </c>
       <c r="K40" t="n">
         <v>253.0227961629121</v>
@@ -37710,7 +37710,7 @@
         <v>394.6085160120764</v>
       </c>
       <c r="N40" t="n">
-        <v>391.8320827861327</v>
+        <v>391.8320827861326</v>
       </c>
       <c r="O40" t="n">
         <v>349.3282668412323</v>
@@ -37780,25 +37780,25 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K41" t="n">
-        <v>661.3366991265652</v>
+        <v>661.3366991265651</v>
       </c>
       <c r="L41" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M41" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N41" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O41" t="n">
-        <v>852.7555845359029</v>
+        <v>852.7555845359043</v>
       </c>
       <c r="P41" t="n">
-        <v>720.5606943908545</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q41" t="n">
-        <v>463.1092954636242</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R41" t="n">
         <v>125.3296184152072</v>
@@ -37856,28 +37856,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K42" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L42" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M42" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N42" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O42" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P42" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q42" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37947,7 +37947,7 @@
         <v>394.6085160120764</v>
       </c>
       <c r="N43" t="n">
-        <v>391.8320827861327</v>
+        <v>391.8320827861326</v>
       </c>
       <c r="O43" t="n">
         <v>349.3282668412323</v>
@@ -38014,31 +38014,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>359.8836161407865</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K44" t="n">
-        <v>661.3366991265655</v>
+        <v>661.3366991265651</v>
       </c>
       <c r="L44" t="n">
-        <v>455.5901143923324</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M44" t="n">
-        <v>538.921115830227</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N44" t="n">
-        <v>552.3018354129117</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O44" t="n">
-        <v>852.755584535902</v>
+        <v>852.7555845359043</v>
       </c>
       <c r="P44" t="n">
-        <v>720.5606943908547</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q44" t="n">
-        <v>463.1092954636244</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R44" t="n">
-        <v>125.3296184152073</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,28 +38093,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>94.62350453597719</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K45" t="n">
-        <v>240.6709080609569</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L45" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M45" t="n">
-        <v>451.7942679013294</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N45" t="n">
-        <v>478.3061046004594</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O45" t="n">
-        <v>415.1124034525793</v>
+        <v>415.1124034525811</v>
       </c>
       <c r="P45" t="n">
-        <v>313.6359509859627</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q45" t="n">
-        <v>159.2338966127273</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,25 +38172,25 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>92.55355323165881</v>
+        <v>92.55355323165878</v>
       </c>
       <c r="K46" t="n">
-        <v>253.0227961629122</v>
+        <v>253.0227961629121</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7325087887908</v>
+        <v>366.7325087887907</v>
       </c>
       <c r="M46" t="n">
-        <v>394.6085160120765</v>
+        <v>394.6085160120763</v>
       </c>
       <c r="N46" t="n">
-        <v>391.8320827861327</v>
+        <v>391.8320827861326</v>
       </c>
       <c r="O46" t="n">
-        <v>349.3282668412324</v>
+        <v>349.3282668412323</v>
       </c>
       <c r="P46" t="n">
-        <v>281.932207763703</v>
+        <v>281.9322077637029</v>
       </c>
       <c r="Q46" t="n">
         <v>125.3693751564862</v>
